--- a/frontend/src/Template.xlsx
+++ b/frontend/src/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nomon\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nomon\OneDrive\Desktop\cmu-score-announcement\frontend\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5EAA9E-F9C4-466B-936D-6BF71396E2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01845D96-3FA0-4BE9-B6C2-BED4C1255A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="132" windowWidth="11556" windowHeight="12852" xr2:uid="{5E4923E5-E3E3-45FB-AEBA-DD38CD184FF4}"/>
+    <workbookView xWindow="8232" yWindow="108" windowWidth="11556" windowHeight="12852" xr2:uid="{5E4923E5-E3E3-45FB-AEBA-DD38CD184FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="2" r:id="rId1"/>
@@ -500,13 +500,15 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.21875" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" style="7" customWidth="1"/>
@@ -532,47 +534,47 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E2" s="8"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="G10"/>
     </row>
   </sheetData>
